--- a/Assets/Data/Excels/Character.xlsx
+++ b/Assets/Data/Excels/Character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TowerOfInfinity\Assets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165C5285-5221-4310-8D30-E5BD6A56C2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBE0A34-0F90-4A61-87FB-B989C4001B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31215" yWindow="7665" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="21600" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,17 @@
   <si>
     <t>WEAPON_SLASH_PROJECTILE</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR_ARCHER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPON_ARROW</t>
   </si>
 </sst>
 </file>
@@ -420,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -509,21 +520,41 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>10001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>11000</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Assets/Data/Excels/Character.xlsx
+++ b/Assets/Data/Excels/Character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TowerOfInfinity\Assets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBE0A34-0F90-4A61-87FB-B989C4001B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8F625F-3C02-4C78-9EEA-11EE0D38CA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="390" windowWidth="21600" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30360" yWindow="1560" windowWidth="21600" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WEAPON_SLASH_PROJECTILE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CHAR_ARCHER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,6 +103,18 @@
   </si>
   <si>
     <t>WEAPON_ARROW</t>
+  </si>
+  <si>
+    <t>CHAR_GUARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPON_STING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -509,7 +517,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -523,18 +531,38 @@
         <v>10001</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10002</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Assets/Data/Excels/Character.xlsx
+++ b/Assets/Data/Excels/Character.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TowerOfInfinity\Assets\Data\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TowerOfInfinity\Assets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8F625F-3C02-4C78-9EEA-11EE0D38CA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDACF014-56E2-4A72-BE01-5F5F747C5CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="1560" windowWidth="21600" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -55,14 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Thief</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CHAR_THIEF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Archer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WEAPON_ARROW</t>
   </si>
   <si>
@@ -109,11 +97,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Guard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WEAPON_STING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Player/Thief/Thief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Player/Archer/Archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Player/Guard/Guard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Enemy/Bat/Bat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,13 +442,13 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="38.25" customWidth="1"/>
-    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="43.875" customWidth="1"/>
     <col min="4" max="4" width="46.375" customWidth="1"/>
     <col min="5" max="5" width="33.75" customWidth="1"/>
     <col min="6" max="6" width="44.125" customWidth="1"/>
@@ -477,13 +477,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -494,16 +494,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -511,19 +511,19 @@
         <v>10000</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -531,19 +531,19 @@
         <v>10001</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -551,19 +551,19 @@
         <v>10002</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -571,19 +571,19 @@
         <v>11000</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
